--- a/classification/droptc/modern-bert/unfreeze/70681460/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/70681460/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.993915855884552</v>
+        <v>0.9994031190872192</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9955356121063232</v>
+        <v>0.9973407387733459</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987899661064148</v>
+        <v>0.9996836185455322</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8792436718940735</v>
+        <v>0.9955875873565674</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9805278778076172</v>
+        <v>0.9717869758605957</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9997151494026184</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9301257729530334</v>
+        <v>0.9992726445198059</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9987955093383789</v>
+        <v>0.9998180270195007</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9993070363998413</v>
+        <v>0.9954020977020264</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.998532772064209</v>
+        <v>0.9966599941253662</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9585598111152649</v>
+        <v>0.9996559619903564</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9988880753517151</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9991762042045593</v>
+        <v>0.9970089793205261</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9839159846305847</v>
+        <v>0.9916074275970459</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9600198268890381</v>
+        <v>0.9924460053443909</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9987955093383789</v>
+        <v>0.9990027546882629</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9769896268844604</v>
+        <v>0.9116961359977722</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9981054067611694</v>
+        <v>0.6353060007095337</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9980645775794983</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9992579817771912</v>
+        <v>0.9988269209861755</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9927293658256531</v>
+        <v>0.8003464341163635</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9948347806930542</v>
+        <v>0.9988535642623901</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9976046085357666</v>
+        <v>0.9997795224189758</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9778398871421814</v>
+        <v>0.9999072551727295</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9839159846305847</v>
+        <v>0.9998483657836914</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9990571141242981</v>
+        <v>0.999828577041626</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.998439610004425</v>
+        <v>0.9965708255767822</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9948580265045166</v>
+        <v>0.9997342228889465</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7419917583465576</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.999134361743927</v>
+        <v>0.9994959831237793</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9993987083435059</v>
+        <v>0.6026337146759033</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9993938207626343</v>
+        <v>0.9998196959495544</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.998603880405426</v>
+        <v>0.999678373336792</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9865378141403198</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9989870190620422</v>
+        <v>0.994181215763092</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8562976121902466</v>
+        <v>0.9998375177383423</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9965047836303711</v>
+        <v>0.9946448802947998</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9927214980125427</v>
+        <v>0.9996850490570068</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9989493489265442</v>
+        <v>0.9669803977012634</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9876663684844971</v>
+        <v>0.9993820190429688</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7689637541770935</v>
+        <v>0.9998724460601807</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9990311861038208</v>
+        <v>0.9938473105430603</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7256177663803101</v>
+        <v>0.9996086955070496</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9985166192054749</v>
+        <v>0.9992302656173706</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9991207718849182</v>
+        <v>0.9986139535903931</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9986481070518494</v>
+        <v>0.9998039603233337</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9992664456367493</v>
+        <v>0.9997692704200745</v>
       </c>
     </row>
     <row r="49">
@@ -1799,14 +1799,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9889386892318726</v>
+        <v>0.9881985783576965</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9988634586334229</v>
+        <v>0.9995706677436829</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9968799352645874</v>
+        <v>0.9998472929000854</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9992407560348511</v>
+        <v>0.5113217830657959</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.528590977191925</v>
+        <v>0.8018094897270203</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9987146854400635</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9881877303123474</v>
+        <v>0.9965842962265015</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9972615242004395</v>
+        <v>0.8677591681480408</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9985504746437073</v>
+        <v>0.9991666078567505</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9781525731086731</v>
+        <v>0.998602569103241</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9993357062339783</v>
+        <v>0.9995636343955994</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9839159846305847</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9387658834457397</v>
+        <v>0.9473155736923218</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9966413974761963</v>
+        <v>0.986525297164917</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9992535710334778</v>
+        <v>0.9996024966239929</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9948580265045166</v>
+        <v>0.9911360740661621</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9938619136810303</v>
+        <v>0.9924460053443909</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9996795654296875</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9960340857505798</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9083462953567505</v>
+        <v>0.9983331561088562</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9984062314033508</v>
+        <v>0.9996114373207092</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9994086027145386</v>
+        <v>0.9900596141815186</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9989770650863647</v>
+        <v>0.9974071383476257</v>
       </c>
     </row>
     <row r="72">
@@ -2443,14 +2443,14 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4602178037166595</v>
+        <v>0.9998643398284912</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9989834427833557</v>
+        <v>0.9963335990905762</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9193031191825867</v>
+        <v>0.9982591271400452</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9993827342987061</v>
+        <v>0.9997285008430481</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9994215965270996</v>
+        <v>0.9445011019706726</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999398946762085</v>
+        <v>0.9557143449783325</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9992706179618835</v>
+        <v>0.9087671637535095</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.999219536781311</v>
+        <v>0.9997472167015076</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9987753033638</v>
+        <v>0.9998793601989746</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9994432330131531</v>
+        <v>0.9998683929443359</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9986851811408997</v>
+        <v>0.9989765882492065</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9879518151283264</v>
+        <v>0.9980120658874512</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5877256989479065</v>
+        <v>0.9998679161071777</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9856089949607849</v>
+        <v>0.999485969543457</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9988092184066772</v>
+        <v>0.9992474317550659</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9893820285797119</v>
+        <v>0.9912039041519165</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.99858558177948</v>
+        <v>0.9916551113128662</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9919036030769348</v>
+        <v>0.9997749924659729</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9966599941253662</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9993707537651062</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9875210523605347</v>
+        <v>0.9998559951782227</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9987657070159912</v>
+        <v>0.9984631538391113</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9990469813346863</v>
+        <v>0.9994889497756958</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9989700317382812</v>
+        <v>0.994918167591095</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9952629804611206</v>
+        <v>0.9993740916252136</v>
       </c>
     </row>
     <row r="97">
@@ -3143,14 +3143,14 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9980759620666504</v>
+        <v>0.9625986218452454</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.999134361743927</v>
+        <v>0.9996850490570068</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9975911378860474</v>
+        <v>0.9997314810752869</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9992244243621826</v>
+        <v>0.999745786190033</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9451199769973755</v>
+        <v>0.9987785220146179</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9991194605827332</v>
+        <v>0.9975743889808655</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7377294301986694</v>
+        <v>0.9995861649513245</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9988808035850525</v>
+        <v>0.9997521042823792</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9978526830673218</v>
+        <v>0.999672532081604</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9985108971595764</v>
+        <v>0.9878833889961243</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9986371397972107</v>
+        <v>0.9585385322570801</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9878474473953247</v>
+        <v>0.9998617172241211</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9889386892318726</v>
+        <v>0.9551408886909485</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8531490564346313</v>
+        <v>0.9996154308319092</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9992293119430542</v>
+        <v>0.764936625957489</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9917832612991333</v>
+        <v>0.9997883439064026</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4626040756702423</v>
+        <v>0.999848484992981</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9392484426498413</v>
+        <v>0.6120660901069641</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9998791217803955</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9990513920783997</v>
+        <v>0.9996259212493896</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9989008903503418</v>
+        <v>0.9998375177383423</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9232141375541687</v>
+        <v>0.9996258020401001</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9809463620185852</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9987389445304871</v>
+        <v>0.9643046855926514</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.999539852142334</v>
+        <v>0.9617801308631897</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9838918447494507</v>
+        <v>0.9946448802947998</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9986394047737122</v>
+        <v>0.9994398951530457</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.999233603477478</v>
+        <v>0.9956309795379639</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9907614588737488</v>
+        <v>0.9998171925544739</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7689926028251648</v>
+        <v>0.9978419542312622</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9919036030769348</v>
+        <v>0.9936750531196594</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998842179775238</v>
+        <v>0.9996235370635986</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9786673188209534</v>
+        <v>0.9989194869995117</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7708308696746826</v>
+        <v>0.9997416138648987</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9751648306846619</v>
+        <v>0.9994940757751465</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9989566802978516</v>
+        <v>0.9894893765449524</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9991477727890015</v>
+        <v>0.9955875873565674</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.998547375202179</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9993409514427185</v>
+        <v>0.9999008178710938</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9751648306846619</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8560430407524109</v>
+        <v>0.9937989115715027</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.995267391204834</v>
+        <v>0.9929694533348083</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9993658661842346</v>
+        <v>0.9834381937980652</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9818379282951355</v>
+        <v>0.9946448802947998</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.999530553817749</v>
+        <v>0.9975433945655823</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9987630844116211</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9765625596046448</v>
+        <v>0.9984655380249023</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9994433522224426</v>
+        <v>0.9996082186698914</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9916960597038269</v>
+        <v>0.9981445074081421</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9388929009437561</v>
+        <v>0.9948156476020813</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9900938868522644</v>
+        <v>0.9988102912902832</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.7825219631195068</v>
+        <v>0.9997914433479309</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.998603880405426</v>
+        <v>0.9992650151252747</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9893469214439392</v>
+        <v>0.9952907562255859</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9986624717712402</v>
+        <v>0.9990717172622681</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9993403553962708</v>
+        <v>0.9924166202545166</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9994100332260132</v>
+        <v>0.7993009686470032</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9875782132148743</v>
+        <v>0.9987767338752747</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9606144428253174</v>
+        <v>0.9979420304298401</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9595292806625366</v>
+        <v>0.9998866319656372</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999422550201416</v>
+        <v>0.9669803977012634</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9962822794914246</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.98847496509552</v>
+        <v>0.999750554561615</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9989159107208252</v>
+        <v>0.9994398951530457</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9988698363304138</v>
+        <v>0.6387273669242859</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9989510774612427</v>
+        <v>0.9865378141403198</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9987509250640869</v>
+        <v>0.9614678621292114</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9993758797645569</v>
+        <v>0.9988269209861755</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9881659746170044</v>
+        <v>0.9924460053443909</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9991090893745422</v>
+        <v>0.9998181462287903</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9994188547134399</v>
+        <v>0.996665894985199</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8901436924934387</v>
+        <v>0.9978131055831909</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9986743927001953</v>
+        <v>0.9959341287612915</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9600198268890381</v>
+        <v>0.9997959733009338</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9966198205947876</v>
+        <v>0.9989135265350342</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9987531900405884</v>
+        <v>0.9997571110725403</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6163917183876038</v>
+        <v>0.9651191234588623</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9990046620368958</v>
+        <v>0.9998509883880615</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9978837370872498</v>
+        <v>0.978602409362793</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.713220477104187</v>
+        <v>0.9996545314788818</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E177" t="b">
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9992519021034241</v>
+        <v>0.9915574789047241</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9981054067611694</v>
+        <v>0.9997627139091492</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9986463189125061</v>
+        <v>0.9997230172157288</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.988976001739502</v>
+        <v>0.9996017813682556</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9976892471313477</v>
+        <v>0.7637903094291687</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.998867392539978</v>
+        <v>0.9995735287666321</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9903270602226257</v>
+        <v>0.9998145699501038</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9917832612991333</v>
+        <v>0.999713122844696</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.999336302280426</v>
+        <v>0.9998517036437988</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9902822971343994</v>
+        <v>0.9998306035995483</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9986398816108704</v>
+        <v>0.9984631538391113</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9991620779037476</v>
+        <v>0.9994561076164246</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9917832612991333</v>
+        <v>0.9938473105430603</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9817991852760315</v>
+        <v>0.9995847344398499</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.999411940574646</v>
+        <v>0.9997039437294006</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.991434633731842</v>
+        <v>0.9948857426643372</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9988828301429749</v>
+        <v>0.9994839429855347</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9919036030769348</v>
+        <v>0.9827172160148621</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9987345337867737</v>
+        <v>0.9997047781944275</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9989151954650879</v>
+        <v>0.9997337460517883</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.998698353767395</v>
+        <v>0.9991568326950073</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9989342093467712</v>
+        <v>0.9938473105430603</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7889803647994995</v>
+        <v>0.9994866847991943</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9990237951278687</v>
+        <v>0.9997952580451965</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.881507396697998</v>
+        <v>0.5401507616043091</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9991870522499084</v>
+        <v>0.9963411688804626</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9959315657615662</v>
+        <v>0.9974789023399353</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8901436924934387</v>
+        <v>0.9965413212776184</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9992590546607971</v>
+        <v>0.9980431795120239</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9781652092933655</v>
+        <v>0.9999107122421265</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8765937089920044</v>
+        <v>0.999756395816803</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9986145496368408</v>
+        <v>0.9997218251228333</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.998439610004425</v>
+        <v>0.9991291165351868</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9967280626296997</v>
+        <v>0.5336625576019287</v>
       </c>
     </row>
   </sheetData>
